--- a/src/predicciones/xgboost/producto_79.xlsx
+++ b/src/predicciones/xgboost/producto_79.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>valor_real</t>
   </si>
   <si>
     <t>valor_prediccion</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,401 +386,548 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>44948</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>1</v>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>44955</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>1</v>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>44959</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>1</v>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>44969</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>1</v>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>44977</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>1</v>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>44978</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>1</v>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>44995</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>1</v>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>44996</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>1</v>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>44999</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>1</v>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>45002</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>1</v>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>45004</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>1</v>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>45018</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>1</v>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>45030</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>1</v>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>45060</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>1</v>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>45065</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>1</v>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>45068</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>1</v>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>45080</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>1</v>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>45082</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>1</v>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>45099</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>1</v>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>45105</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>1</v>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>45126</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>1</v>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>45130</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>1</v>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>45139</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>1</v>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>45149</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>1</v>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>45151</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>1</v>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>45154</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>1</v>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>45182</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>1</v>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>45185</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>1</v>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>45194</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>1</v>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>45224</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>1</v>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>45238</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>1</v>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>45254</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>1</v>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>45262</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>1</v>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>45272</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>1</v>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>45273</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>1</v>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>45284</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>1</v>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>45296</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>1</v>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>45297</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>1</v>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>45302</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>1</v>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>45307</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>1</v>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>45309</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>1</v>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>45311</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>1</v>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>45320</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>1</v>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>45327</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>1</v>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>45331</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <v>1</v>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>45332</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
-        <v>1</v>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>45346</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
-        <v>1</v>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>45352</v>
       </c>
       <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
         <v>1</v>
       </c>
     </row>
